--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Escenario</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
   </si>
   <si>
     <t>Respuesta del sistema</t>
@@ -97,27 +94,6 @@
   </si>
   <si>
     <t>Valor Nulo</t>
-  </si>
-  <si>
-    <t>&lt;Nombre del campo de entrada&gt;</t>
-  </si>
-  <si>
-    <t>&lt;La clasificación es según el componente de diseño   utilizado][ejemplo: campo de texto, lista desplegable o campo de selección&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Se especifica si el campo puede ser nulo o no&gt; Para ello solo se pone Sí o No. </t>
-  </si>
-  <si>
-    <t>&lt;Una breve descripción de los datos que deben introducirse (Reglas que tiene que cumplir el campo.)&gt;</t>
-  </si>
-  <si>
-    <t>[Condiciones que deben existir para que se realice el requisito]</t>
-  </si>
-  <si>
-    <t>&lt;Se enumeran todos los campos ó variables descritas en el Requisito&gt;</t>
-  </si>
-  <si>
-    <t>SC &lt;Nombre del Requisito a probar&gt;</t>
   </si>
   <si>
     <t>Control del Documento</t>
@@ -245,16 +221,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>Funciona correctamente la función leer sin tag</t>
-  </si>
-  <si>
-    <t>No funciona correctamente la funcion  leer sin tag</t>
   </si>
   <si>
     <t>PDF</t>
@@ -268,15 +235,6 @@
     <t>creación del caso de prueba</t>
   </si>
   <si>
-    <t>el parámetro a ingresar será un archivo HTML</t>
-  </si>
-  <si>
-    <t>Como salida se muestra  el texto plano anteriormente ingresado como un archivo HTML.</t>
-  </si>
-  <si>
-    <t>El usuario ingresa como parámetro un archivo de formato HTML y como salida obtiene el mismo contenido convertido en texto plano.</t>
-  </si>
-  <si>
     <t>Como salida se muestra  un mensaje de error:"el formato del archivo es incorrecto"</t>
   </si>
   <si>
@@ -287,6 +245,69 @@
   </si>
   <si>
     <t>Descripción del caso de prueba para el requisito AUDATA_REQ_HTML_leer_sin_tag</t>
+  </si>
+  <si>
+    <t>SC AUDATA_REC_HTML_Leer_Sin_Etiquetas</t>
+  </si>
+  <si>
+    <t>EC 1.2 No ingresar ningún archivo</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ingresa como entrada un archivo HTML para su lectura.</t>
+  </si>
+  <si>
+    <t>ArchivoBueno</t>
+  </si>
+  <si>
+    <t>Archivo HTML</t>
+  </si>
+  <si>
+    <t>Ingresar un archivo HTML</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de alerta: "Ingrese un archivo HTML”.</t>
+  </si>
+  <si>
+    <t>No ingresar ningún archivo</t>
+  </si>
+  <si>
+    <t>EC 1.3 Ingresar un Archivo no HTML</t>
+  </si>
+  <si>
+    <t>EC 1.4 Ingresar un Archivo HTML</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ingresa como entrada un archivo no HTML para su lectura.</t>
+  </si>
+  <si>
+    <t>ArchivoMalo</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de error: "Ingrese un archivo con extensión HTML".</t>
+  </si>
+  <si>
+    <t>Ingresar un archivo noHTML</t>
+  </si>
+  <si>
+    <t>Archivo Bueno</t>
+  </si>
+  <si>
+    <t>Archivo Malo</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Archivo de formato HTML</t>
+  </si>
+  <si>
+    <t>Archivo de cualquier extención excepto HTML</t>
+  </si>
+  <si>
+    <t>EC 1.1 Ingresar archivo HTML con etiquetas</t>
+  </si>
+  <si>
+    <t>El usuario ingresa archivo HTML con etiquetas para su lectura</t>
   </si>
 </sst>
 </file>
@@ -401,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -494,26 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF0000FF"/>
       </left>
@@ -550,11 +551,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -566,7 +655,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,12 +666,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -594,53 +676,91 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,16 +782,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1308,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1215,13 +1344,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="F14" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1229,11 +1358,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1241,11 +1370,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1253,11 +1382,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1265,8 +1394,8 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="8" t="s">
-        <v>42</v>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1275,11 +1404,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1301,25 +1430,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="B21" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1341,85 +1470,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="39"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="B27" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1459,12 +1588,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1473,11 +1602,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1487,11 +1616,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1513,11 +1642,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1543,64 +1672,64 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="F38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="7">
+      <c r="B39" s="21">
         <v>1</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="27">
+        <v>43559</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="22">
-        <v>43559</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1612,7 +1741,7 @@
       <c r="J41" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="F14:J17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:H21"/>
@@ -1632,14 +1761,16 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="F39:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1649,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M45"/>
+  <dimension ref="A2:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1686,10 +1817,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1702,9 +1833,7 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1746,11 +1875,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1776,20 +1905,20 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1798,20 +1927,18 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>55</v>
+      <c r="B10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1819,12 +1946,12 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1832,13 +1959,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1847,33 +1972,33 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>58</v>
+      <c r="E14" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1881,15 +2006,13 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1897,11 +2020,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1909,15 +2032,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1925,13 +2046,23 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1941,11 +2072,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1953,13 +2084,13 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1967,13 +2098,13 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1983,11 +2114,21 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1997,11 +2138,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2011,11 +2152,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2023,13 +2164,13 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2039,11 +2180,11 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2053,11 +2194,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2067,11 +2210,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2081,11 +2224,11 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2095,11 +2238,11 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2109,11 +2252,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2123,11 +2266,11 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2137,11 +2280,11 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2151,11 +2294,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2165,11 +2308,11 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2317,16 +2460,98 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="22">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
   </mergeCells>
@@ -2339,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2356,56 +2581,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
+      <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>18</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="52">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="52">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\copiaGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>El usuario ingresa archivo HTML con etiquetas para su lectura</t>
+  </si>
+  <si>
+    <t>El sistrma debe omititr todas las etiquetas encontradas</t>
   </si>
 </sst>
 </file>
@@ -791,17 +794,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,7 +1786,7 @@
   <dimension ref="A2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F13"/>
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1817,10 +1820,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1875,11 +1878,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1936,7 +1939,9 @@
       <c r="D10" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="52" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" s="52" t="s">
         <v>51</v>
       </c>
@@ -2048,19 +2053,19 @@
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="55" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="2"/>
@@ -2072,11 +2077,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2086,11 +2091,11 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2100,11 +2105,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2542,6 +2547,11 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
@@ -2549,11 +2559,6 @@
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2566,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2584,12 +2589,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\copiaGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -307,10 +307,10 @@
     <t>EC 1.1 Ingresar archivo HTML con etiquetas</t>
   </si>
   <si>
-    <t>El usuario ingresa archivo HTML con etiquetas para su lectura</t>
-  </si>
-  <si>
     <t>El sistrma debe omititr todas las etiquetas encontradas</t>
+  </si>
+  <si>
+    <t>El usuario ingresa archivo HTML con etiquetas para su lectura.</t>
   </si>
 </sst>
 </file>
@@ -680,18 +680,57 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,44 +785,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -793,18 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +843,7 @@
         <xdr:cNvPr id="4101" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,13 +1347,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1361,11 +1361,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1373,11 +1373,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1385,11 +1385,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1407,11 +1407,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1433,25 +1433,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1473,85 +1473,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="44" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="46"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="39" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1591,12 +1591,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1605,11 +1605,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1645,11 +1645,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1683,51 +1683,51 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="21">
+      <c r="B39" s="34">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="40">
         <v>43559</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1745,25 +1745,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F38:G38"/>
@@ -1774,6 +1755,25 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="H39:J40"/>
     <mergeCell ref="F39:G40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
   <dimension ref="A2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1820,10 +1820,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1878,11 +1878,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1930,19 +1930,19 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="2"/>
@@ -1952,11 +1952,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1964,11 +1964,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1977,11 +1977,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1990,19 +1990,19 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="56" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="2"/>
@@ -2013,11 +2013,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2025,11 +2025,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2039,11 +2039,11 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2053,19 +2053,19 @@
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="53" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="2"/>
@@ -2077,11 +2077,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2091,11 +2091,11 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2105,11 +2105,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="56" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="2"/>
@@ -2143,11 +2143,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2157,11 +2157,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2171,11 +2171,11 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2537,6 +2537,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
@@ -2551,14 +2559,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2589,12 +2589,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2615,66 +2615,66 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="52">
+      <c r="B6" s="56">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52">
+      <c r="B8" s="56">
         <v>2</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="56" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Cuando el usuario ingresa como entrada un archivo HTML para su lectura.</t>
   </si>
   <si>
-    <t>ArchivoBueno</t>
-  </si>
-  <si>
     <t>Archivo HTML</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Ingresar un archivo noHTML</t>
   </si>
   <si>
-    <t>Archivo Bueno</t>
-  </si>
-  <si>
     <t>Archivo Malo</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>El usuario ingresa archivo HTML con etiquetas para su lectura.</t>
+  </si>
+  <si>
+    <t>ArchivoBueno1</t>
+  </si>
+  <si>
+    <t>Archivo Bueno1</t>
   </si>
 </sst>
 </file>
@@ -680,12 +680,99 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,113 +785,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +843,7 @@
         <xdr:cNvPr id="4101" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,13 +1347,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1361,11 +1361,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1373,11 +1373,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1385,11 +1385,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1407,11 +1407,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1433,25 +1433,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1473,85 +1473,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25" t="s">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="29" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="30" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1591,12 +1591,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1605,11 +1605,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1645,11 +1645,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1683,51 +1683,51 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="34">
+      <c r="B39" s="21">
         <v>1</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="27">
         <v>43559</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="42" t="s">
+      <c r="G39" s="36"/>
+      <c r="H39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="47"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1745,6 +1745,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F38:G38"/>
@@ -1755,25 +1774,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="H39:J40"/>
     <mergeCell ref="F39:G40"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1820,10 +1820,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1878,11 +1878,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -1930,20 +1930,20 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>51</v>
+      <c r="E10" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1952,11 +1952,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1964,11 +1964,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1977,11 +1977,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1990,20 +1990,20 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="56" t="s">
+      <c r="D14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="52" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2013,11 +2013,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2025,11 +2025,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2039,11 +2039,11 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2053,20 +2053,20 @@
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="E18" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="F18" s="55" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>59</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2077,11 +2077,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2091,11 +2091,11 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2105,11 +2105,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="56" t="s">
+      <c r="B22" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="2"/>
@@ -2143,11 +2143,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2157,11 +2157,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2171,11 +2171,11 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2537,14 +2537,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
@@ -2559,6 +2551,14 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2589,12 +2589,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2615,66 +2615,66 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="56">
+      <c r="B6" s="52">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="F6" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="52">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="56">
-        <v>2</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_HTML_SIN_ETIQUETA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>EC 1.3 Ingresar un Archivo no HTML</t>
   </si>
   <si>
-    <t>EC 1.4 Ingresar un Archivo HTML</t>
-  </si>
-  <si>
     <t>Cuando el usuario ingresa como entrada un archivo no HTML para su lectura.</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Archivo Bueno1</t>
+  </si>
+  <si>
+    <t>EC 1.4 Ingresar un Archivo no HTML</t>
   </si>
 </sst>
 </file>
@@ -680,18 +680,57 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,44 +785,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -793,18 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +843,7 @@
         <xdr:cNvPr id="4101" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,13 +1347,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1361,11 +1361,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1373,11 +1373,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1385,11 +1385,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1407,11 +1407,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1433,25 +1433,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1473,85 +1473,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="44" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="46"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="39" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1591,12 +1591,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1605,11 +1605,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1619,11 +1619,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1645,11 +1645,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1683,51 +1683,51 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="21">
+      <c r="B39" s="34">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="40">
         <v>43559</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1745,25 +1745,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F38:G38"/>
@@ -1774,6 +1755,25 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="H39:J40"/>
     <mergeCell ref="F39:G40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1820,10 +1820,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1878,11 +1878,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1930,19 +1930,19 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="56" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="2"/>
@@ -1952,11 +1952,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1964,11 +1964,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1977,11 +1977,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1990,19 +1990,19 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="56" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="2"/>
@@ -2013,11 +2013,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2025,11 +2025,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2039,11 +2039,11 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2053,20 +2053,20 @@
     </row>
     <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="F18" s="53" t="s">
         <v>57</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>58</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2077,11 +2077,11 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2091,11 +2091,11 @@
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2105,11 +2105,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2119,19 +2119,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="56" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="2"/>
@@ -2143,11 +2143,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2157,11 +2157,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2171,11 +2171,11 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2537,6 +2537,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
@@ -2551,14 +2559,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2571,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
@@ -2589,12 +2589,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2615,66 +2615,66 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="52">
+      <c r="B6" s="56">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="52" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="56">
+        <v>2</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52">
-        <v>2</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
